--- a/StructureDefinition-profile-Person.xlsx
+++ b/StructureDefinition-profile-Person.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="918" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1024" uniqueCount="264">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T13:17:30.7660328-06:00</t>
+    <t>2026-02-09T22:05:43.2696506-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -419,33 +419,98 @@
     <t>Person.extension</t>
   </si>
   <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>Person.extension:deceased</t>
+  </si>
+  <si>
+    <t>deceased</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Person.deceased|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for Person.deceased[x] from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Indicates if the individual is deceased or not.</t>
+  </si>
+  <si>
+    <t>Element `Person.deceased[x]` is will have a context of Person based on following the parent source element upwards and mapping to `Person`.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>Person.extension:maritalStatus</t>
+  </si>
+  <si>
+    <t>maritalStatus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Person.maritalStatus|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for Person.maritalStatus from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>This field contains a person's most recent marital (civil) status.</t>
+  </si>
+  <si>
+    <t>Element `Person.maritalStatus` is will have a context of Person based on following the parent source element upwards and mapping to `Person`.</t>
+  </si>
+  <si>
+    <t>Person.extension:communication</t>
+  </si>
+  <si>
+    <t>communication</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Person.communication|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for Person.communication from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>A language which may be used to communicate with the person about his or her health.</t>
+  </si>
+  <si>
+    <t>Element `Person.communication` is will have a context of Person based on following the parent source element upwards and mapping to `Person`.</t>
+  </si>
+  <si>
+    <t>Person.modifierExtension</t>
+  </si>
+  <si>
     <t>extensions
 user content</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>Person.modifierExtension</t>
-  </si>
-  <si>
     <t>Extensions that cannot be ignored</t>
   </si>
   <si>
@@ -453,6 +518,9 @@
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
     <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
   </si>
   <si>
@@ -710,6 +778,9 @@
   </si>
   <si>
     <t>Person.link.extension</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
   </si>
   <si>
     <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
@@ -1073,7 +1144,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM25"/>
+  <dimension ref="A1:AM28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1082,9 +1153,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="25.08984375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="27.8359375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="25.08984375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="9.984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="13.453125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.29296875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.21484375" customWidth="true" bestFit="true"/>
@@ -1092,7 +1163,7 @@
     <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="65.0546875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="86.6484375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2025,7 +2096,7 @@
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>131</v>
+        <v>76</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2044,17 +2115,15 @@
         <v>76</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="L9" t="s" s="2">
         <v>132</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>133</v>
       </c>
-      <c r="M9" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>135</v>
-      </c>
+      <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
         <v>76</v>
@@ -2091,16 +2160,14 @@
         <v>76</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC9" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="AC9" s="2"/>
       <c r="AD9" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>76</v>
+        <v>135</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>136</v>
@@ -2118,7 +2185,7 @@
         <v>137</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>129</v>
+        <v>76</v>
       </c>
       <c r="AL9" t="s" s="2">
         <v>76</v>
@@ -2132,43 +2199,43 @@
         <v>138</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="C10" s="2"/>
+        <v>130</v>
+      </c>
+      <c r="C10" t="s" s="2">
+        <v>139</v>
+      </c>
       <c r="D10" t="s" s="2">
-        <v>131</v>
+        <v>76</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>76</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="O10" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
         <v>76</v>
       </c>
@@ -2216,7 +2283,7 @@
         <v>76</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>77</v>
@@ -2225,13 +2292,13 @@
         <v>78</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>76</v>
+        <v>144</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>137</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>129</v>
+        <v>76</v>
       </c>
       <c r="AL10" t="s" s="2">
         <v>76</v>
@@ -2242,12 +2309,14 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="C11" s="2"/>
+        <v>130</v>
+      </c>
+      <c r="C11" t="s" s="2">
+        <v>146</v>
+      </c>
       <c r="D11" t="s" s="2">
         <v>76</v>
       </c>
@@ -2256,7 +2325,7 @@
         <v>77</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>76</v>
@@ -2268,18 +2337,18 @@
         <v>76</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="N11" s="2"/>
-      <c r="O11" t="s" s="2">
-        <v>147</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="N11" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
         <v>76</v>
       </c>
@@ -2327,7 +2396,7 @@
         <v>76</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>77</v>
@@ -2336,19 +2405,19 @@
         <v>78</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>76</v>
+        <v>144</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>148</v>
+        <v>76</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>149</v>
+        <v>76</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>150</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12">
@@ -2356,9 +2425,11 @@
         <v>151</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="C12" s="2"/>
+        <v>130</v>
+      </c>
+      <c r="C12" t="s" s="2">
+        <v>152</v>
+      </c>
       <c r="D12" t="s" s="2">
         <v>76</v>
       </c>
@@ -2376,23 +2447,21 @@
         <v>76</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="O12" t="s" s="2">
         <v>156</v>
       </c>
+      <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
         <v>76</v>
       </c>
@@ -2440,7 +2509,7 @@
         <v>76</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>77</v>
@@ -2449,31 +2518,31 @@
         <v>78</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>76</v>
+        <v>144</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>157</v>
+        <v>76</v>
       </c>
       <c r="AL12" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>158</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>76</v>
+        <v>158</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
@@ -2486,25 +2555,25 @@
         <v>76</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="L13" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="M13" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="N13" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="M13" t="s" s="2">
+      <c r="O13" t="s" s="2">
         <v>162</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="O13" t="s" s="2">
-        <v>164</v>
       </c>
       <c r="P13" t="s" s="2">
         <v>76</v>
@@ -2553,7 +2622,7 @@
         <v>76</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>77</v>
@@ -2565,24 +2634,24 @@
         <v>76</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>165</v>
+        <v>129</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>166</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2593,7 +2662,7 @@
         <v>77</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>76</v>
@@ -2602,22 +2671,20 @@
         <v>76</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>106</v>
+        <v>165</v>
       </c>
       <c r="L14" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="M14" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="N14" s="2"/>
+      <c r="O14" t="s" s="2">
         <v>168</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="O14" t="s" s="2">
-        <v>171</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>76</v>
@@ -2642,13 +2709,13 @@
         <v>76</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>172</v>
+        <v>76</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>173</v>
+        <v>76</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>174</v>
+        <v>76</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>76</v>
@@ -2666,13 +2733,13 @@
         <v>76</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>76</v>
@@ -2681,21 +2748,21 @@
         <v>98</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>76</v>
+        <v>170</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -2706,7 +2773,7 @@
         <v>77</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>76</v>
@@ -2718,19 +2785,19 @@
         <v>87</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>76</v>
@@ -2779,13 +2846,13 @@
         <v>76</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>76</v>
@@ -2794,21 +2861,21 @@
         <v>98</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -2828,22 +2895,22 @@
         <v>76</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>76</v>
@@ -2892,7 +2959,7 @@
         <v>76</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>77</v>
@@ -2907,21 +2974,21 @@
         <v>98</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>192</v>
+        <v>187</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -2941,19 +3008,23 @@
         <v>76</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>194</v>
+        <v>106</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
+        <v>190</v>
+      </c>
+      <c r="N17" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="O17" t="s" s="2">
+        <v>192</v>
+      </c>
       <c r="P17" t="s" s="2">
         <v>76</v>
       </c>
@@ -2977,13 +3048,13 @@
         <v>76</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>76</v>
+        <v>193</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>76</v>
+        <v>194</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>76</v>
+        <v>195</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>76</v>
@@ -3001,7 +3072,7 @@
         <v>76</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>77</v>
@@ -3016,21 +3087,21 @@
         <v>98</v>
       </c>
       <c r="AK17" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="AL17" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM17" t="s" s="2">
         <v>197</v>
-      </c>
-      <c r="AL17" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM17" t="s" s="2">
-        <v>198</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3053,15 +3124,17 @@
         <v>87</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="M18" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="M18" t="s" s="2">
+      <c r="N18" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
         <v>203</v>
       </c>
@@ -3112,7 +3185,7 @@
         <v>76</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>77</v>
@@ -3133,15 +3206,15 @@
         <v>76</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>76</v>
+        <v>205</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3152,29 +3225,31 @@
         <v>77</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="N19" s="2"/>
+        <v>209</v>
+      </c>
+      <c r="N19" t="s" s="2">
+        <v>210</v>
+      </c>
       <c r="O19" t="s" s="2">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>76</v>
@@ -3223,13 +3298,13 @@
         <v>76</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>76</v>
@@ -3238,21 +3313,21 @@
         <v>98</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>211</v>
+        <v>76</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>76</v>
+        <v>213</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3263,7 +3338,7 @@
         <v>77</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>76</v>
@@ -3275,13 +3350,13 @@
         <v>76</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -3332,13 +3407,13 @@
         <v>76</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>76</v>
@@ -3347,21 +3422,21 @@
         <v>98</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>76</v>
+        <v>219</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3381,19 +3456,21 @@
         <v>76</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
+      <c r="O21" t="s" s="2">
+        <v>224</v>
+      </c>
       <c r="P21" t="s" s="2">
         <v>76</v>
       </c>
@@ -3441,7 +3518,7 @@
         <v>76</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>77</v>
@@ -3453,10 +3530,10 @@
         <v>76</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>76</v>
@@ -3467,44 +3544,44 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>131</v>
+        <v>76</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>132</v>
+        <v>227</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>133</v>
+        <v>228</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="O22" s="2"/>
+        <v>229</v>
+      </c>
+      <c r="N22" s="2"/>
+      <c r="O22" t="s" s="2">
+        <v>230</v>
+      </c>
       <c r="P22" t="s" s="2">
         <v>76</v>
       </c>
@@ -3552,25 +3629,25 @@
         <v>76</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>76</v>
+        <v>232</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>76</v>
@@ -3578,14 +3655,14 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>227</v>
+        <v>76</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
@@ -3598,26 +3675,22 @@
         <v>76</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>132</v>
+        <v>234</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="O23" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>236</v>
+      </c>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>76</v>
       </c>
@@ -3665,7 +3738,7 @@
         <v>76</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>77</v>
@@ -3677,10 +3750,10 @@
         <v>76</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>129</v>
+        <v>237</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>76</v>
@@ -3691,10 +3764,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -3702,7 +3775,7 @@
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>86</v>
@@ -3717,13 +3790,13 @@
         <v>76</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -3774,10 +3847,10 @@
         <v>76</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>231</v>
+        <v>242</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>86</v>
@@ -3786,10 +3859,10 @@
         <v>76</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>76</v>
@@ -3800,21 +3873,21 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>76</v>
+        <v>158</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>76</v>
@@ -3826,15 +3899,17 @@
         <v>76</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="N25" s="2"/>
+        <v>246</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>161</v>
+      </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>76</v>
@@ -3859,13 +3934,13 @@
         <v>76</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>172</v>
+        <v>76</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>239</v>
+        <v>76</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>240</v>
+        <v>76</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>76</v>
@@ -3883,27 +3958,358 @@
         <v>76</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>236</v>
+        <v>247</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH25" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI25" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ25" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AK25" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="AL25" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM25" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="B26" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="E26" s="2"/>
+      <c r="F26" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G26" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H26" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I26" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J26" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K26" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="L26" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="M26" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="O26" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="P26" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q26" s="2"/>
+      <c r="R26" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S26" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T26" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U26" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V26" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W26" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X26" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y26" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z26" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA26" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB26" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC26" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD26" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE26" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF26" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="AG26" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH26" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI26" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ26" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AK26" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AL26" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM26" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="B27" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E27" s="2"/>
+      <c r="F27" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="AI25" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ25" t="s" s="2">
+      <c r="G27" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H27" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I27" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J27" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K27" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="L27" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="M27" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+      <c r="P27" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q27" s="2"/>
+      <c r="R27" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S27" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T27" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U27" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V27" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W27" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X27" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y27" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z27" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA27" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB27" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC27" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD27" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE27" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF27" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="AG27" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH27" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI27" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ27" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="AK25" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="AL25" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM25" t="s" s="2">
+      <c r="AK27" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="AL27" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM27" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="B28" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="D28" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E28" s="2"/>
+      <c r="F28" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G28" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H28" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I28" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J28" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K28" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="L28" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="M28" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+      <c r="P28" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q28" s="2"/>
+      <c r="R28" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S28" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T28" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U28" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V28" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W28" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X28" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="Y28" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="Z28" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="AA28" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB28" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC28" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD28" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE28" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF28" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="AG28" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH28" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI28" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ28" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK28" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="AL28" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM28" t="s" s="2">
         <v>76</v>
       </c>
     </row>

--- a/StructureDefinition-profile-Person.xlsx
+++ b/StructureDefinition-profile-Person.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1024" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1058" uniqueCount="267">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-09T22:05:43.2696506-06:00</t>
+    <t>2026-02-17T14:42:26.8775746-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -459,7 +459,7 @@
     <t>Indicates if the individual is deceased or not.</t>
   </si>
   <si>
-    <t>Element `Person.deceased[x]` is will have a context of Person based on following the parent source element upwards and mapping to `Person`.</t>
+    <t>Element `Person.deceased[x]` has a context of Person based on following the parent source element upwards and mapping to `Person`.</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
@@ -482,7 +482,7 @@
     <t>This field contains a person's most recent marital (civil) status.</t>
   </si>
   <si>
-    <t>Element `Person.maritalStatus` is will have a context of Person based on following the parent source element upwards and mapping to `Person`.</t>
+    <t>Element `Person.maritalStatus` has a context of Person based on following the parent source element upwards and mapping to `Person`.</t>
   </si>
   <si>
     <t>Person.extension:communication</t>
@@ -501,7 +501,7 @@
     <t>A language which may be used to communicate with the person about his or her health.</t>
   </si>
   <si>
-    <t>Element `Person.communication` is will have a context of Person based on following the parent source element upwards and mapping to `Person`.</t>
+    <t>Element `Person.communication` has a context of Person based on following the parent source element upwards and mapping to `Person`.</t>
   </si>
   <si>
     <t>Person.modifierExtension</t>
@@ -780,13 +780,23 @@
     <t>Person.link.extension</t>
   </si>
   <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
     <t>Element.extension</t>
+  </si>
+  <si>
+    <t>Person.link.extension:link</t>
+  </si>
+  <si>
+    <t>link</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Person.link|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for Person.link from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Element `Person.link` has is mapped to FHIR R4 element `Person.link`, but has no comparisons.</t>
   </si>
   <si>
     <t>Person.link.modifierExtension</t>
@@ -1144,7 +1154,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM28"/>
+  <dimension ref="A1:AM29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -3880,7 +3890,7 @@
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>158</v>
+        <v>76</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
@@ -3902,14 +3912,12 @@
         <v>131</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>245</v>
+        <v>132</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>161</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="N25" s="2"/>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>76</v>
@@ -3946,19 +3954,17 @@
         <v>76</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC25" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="AC25" s="2"/>
       <c r="AD25" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>76</v>
+        <v>135</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>77</v>
@@ -3973,7 +3979,7 @@
         <v>137</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>243</v>
+        <v>76</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>76</v>
@@ -3984,14 +3990,16 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="C26" s="2"/>
+        <v>244</v>
+      </c>
+      <c r="C26" t="s" s="2">
+        <v>247</v>
+      </c>
       <c r="D26" t="s" s="2">
-        <v>249</v>
+        <v>76</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
@@ -4004,26 +4012,24 @@
         <v>76</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>131</v>
+        <v>248</v>
       </c>
       <c r="L26" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="M26" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="N26" t="s" s="2">
         <v>250</v>
       </c>
-      <c r="M26" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="O26" t="s" s="2">
-        <v>162</v>
-      </c>
+      <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>76</v>
       </c>
@@ -4071,7 +4077,7 @@
         <v>76</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>77</v>
@@ -4080,13 +4086,13 @@
         <v>78</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>76</v>
+        <v>144</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>137</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>129</v>
+        <v>76</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>76</v>
@@ -4097,42 +4103,46 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>76</v>
+        <v>252</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="L27" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="M27" t="s" s="2">
         <v>254</v>
       </c>
-      <c r="L27" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="N27" s="2"/>
-      <c r="O27" s="2"/>
+      <c r="N27" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="O27" t="s" s="2">
+        <v>162</v>
+      </c>
       <c r="P27" t="s" s="2">
         <v>76</v>
       </c>
@@ -4180,22 +4190,22 @@
         <v>76</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>257</v>
+        <v>129</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>76</v>
@@ -4206,10 +4216,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4217,7 +4227,7 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>86</v>
@@ -4232,13 +4242,13 @@
         <v>76</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>106</v>
+        <v>257</v>
       </c>
       <c r="L28" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="M28" t="s" s="2">
         <v>259</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>260</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -4265,13 +4275,13 @@
         <v>76</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>193</v>
+        <v>76</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>261</v>
+        <v>76</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>262</v>
+        <v>76</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>76</v>
@@ -4289,10 +4299,10 @@
         <v>76</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>86</v>
@@ -4304,12 +4314,121 @@
         <v>98</v>
       </c>
       <c r="AK28" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="AL28" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM28" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="B29" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E29" s="2"/>
+      <c r="F29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G29" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H29" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I29" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J29" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K29" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="L29" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="M29" t="s" s="2">
         <v>263</v>
       </c>
-      <c r="AL28" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM28" t="s" s="2">
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+      <c r="P29" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q29" s="2"/>
+      <c r="R29" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S29" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T29" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U29" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V29" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W29" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X29" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="Y29" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="Z29" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="AA29" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB29" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC29" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD29" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE29" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF29" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="AG29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH29" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI29" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ29" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK29" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="AL29" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM29" t="s" s="2">
         <v>76</v>
       </c>
     </row>

--- a/StructureDefinition-profile-Person.xlsx
+++ b/StructureDefinition-profile-Person.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T14:42:26.8775746-06:00</t>
+    <t>2026-02-20T11:59:20.9178474-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Person|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Person</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -449,7 +449,7 @@
     <t>deceased</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Person.deceased|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Person.deceased}
 </t>
   </si>
   <si>
@@ -472,7 +472,7 @@
     <t>maritalStatus</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Person.maritalStatus|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Person.maritalStatus}
 </t>
   </si>
   <si>
@@ -491,7 +491,7 @@
     <t>communication</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Person.communication|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Person.communication}
 </t>
   </si>
   <si>
@@ -789,7 +789,7 @@
     <t>link</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Person.link|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Person.link}
 </t>
   </si>
   <si>
@@ -1173,7 +1173,7 @@
     <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="86.6484375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="72.23828125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-profile-Person.xlsx
+++ b/StructureDefinition-profile-Person.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1058" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1024" uniqueCount="264">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T11:59:20.9178474-06:00</t>
+    <t>2026-02-21T13:36:54.3200607-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Person</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Person|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -449,7 +449,7 @@
     <t>deceased</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Person.deceased}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Person.deceased|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -472,7 +472,7 @@
     <t>maritalStatus</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Person.maritalStatus}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Person.maritalStatus|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -491,7 +491,7 @@
     <t>communication</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Person.communication}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Person.communication|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -780,23 +780,13 @@
     <t>Person.link.extension</t>
   </si>
   <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
     <t>Element.extension</t>
-  </si>
-  <si>
-    <t>Person.link.extension:link</t>
-  </si>
-  <si>
-    <t>link</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Person.link}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for Person.link from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Element `Person.link` has is mapped to FHIR R4 element `Person.link`, but has no comparisons.</t>
   </si>
   <si>
     <t>Person.link.modifierExtension</t>
@@ -1154,7 +1144,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM29"/>
+  <dimension ref="A1:AM28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1173,7 +1163,7 @@
     <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="72.23828125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="86.6484375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -3890,7 +3880,7 @@
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>76</v>
+        <v>158</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
@@ -3912,12 +3902,14 @@
         <v>131</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>132</v>
+        <v>245</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="N25" s="2"/>
+        <v>246</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>161</v>
+      </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>76</v>
@@ -3954,17 +3946,19 @@
         <v>76</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AC25" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="AC25" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="AD25" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>135</v>
+        <v>76</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>77</v>
@@ -3979,7 +3973,7 @@
         <v>137</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>76</v>
+        <v>243</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>76</v>
@@ -3990,16 +3984,14 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="C26" t="s" s="2">
-        <v>247</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>76</v>
+        <v>249</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
@@ -4012,24 +4004,26 @@
         <v>76</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>248</v>
+        <v>131</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>236</v>
+        <v>251</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="O26" s="2"/>
+        <v>161</v>
+      </c>
+      <c r="O26" t="s" s="2">
+        <v>162</v>
+      </c>
       <c r="P26" t="s" s="2">
         <v>76</v>
       </c>
@@ -4077,7 +4071,7 @@
         <v>76</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>77</v>
@@ -4086,13 +4080,13 @@
         <v>78</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>144</v>
+        <v>76</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>137</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>76</v>
+        <v>129</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>76</v>
@@ -4103,46 +4097,42 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>252</v>
+        <v>76</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>131</v>
+        <v>254</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="O27" t="s" s="2">
-        <v>162</v>
-      </c>
+        <v>256</v>
+      </c>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>76</v>
       </c>
@@ -4190,22 +4180,22 @@
         <v>76</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>129</v>
+        <v>257</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>76</v>
@@ -4216,10 +4206,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4227,7 +4217,7 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>86</v>
@@ -4242,13 +4232,13 @@
         <v>76</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>257</v>
+        <v>106</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -4275,13 +4265,13 @@
         <v>76</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>76</v>
+        <v>193</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>76</v>
+        <v>261</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>76</v>
+        <v>262</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>76</v>
@@ -4299,10 +4289,10 @@
         <v>76</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>86</v>
@@ -4314,121 +4304,12 @@
         <v>98</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="B29" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="C29" s="2"/>
-      <c r="D29" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E29" s="2"/>
-      <c r="F29" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G29" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H29" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I29" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J29" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K29" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="L29" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="N29" s="2"/>
-      <c r="O29" s="2"/>
-      <c r="P29" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q29" s="2"/>
-      <c r="R29" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S29" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T29" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U29" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V29" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W29" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X29" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="Y29" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="Z29" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="AA29" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB29" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC29" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD29" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE29" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF29" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="AG29" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH29" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI29" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ29" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK29" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="AL29" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM29" t="s" s="2">
         <v>76</v>
       </c>
     </row>
